--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st04.xlsx
@@ -1636,7 +1636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]     I am an executor from the Laterano Notarial Hall, working as executor of this estate. You may call me "Executor."
+    <t xml:space="preserve">[name="???"]     I am an executor from the Laterano Notarial Hall, working as executor of this estate. You may call me 'Executor.'
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Executor"]     "Vermeil," you are the target of my mission.
+    <t xml:space="preserve">[name="Executor"]     'Vermeil,' you are the target of my mission.
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Huntsman"]     I don't want to hear you say "I live for revenge." That's too cliche.
+    <t xml:space="preserve">[name="Old Huntsman"]     I don't want to hear you say 'I live for revenge.' That's too cliche.
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Executor"]  "Let Vermeil live."
+    <t xml:space="preserve">[name="Executor"]  'Let Vermeil live.'
 </t>
   </si>
   <si>
@@ -1976,7 +1976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Executor"]  "Do you want to live?"
+    <t xml:space="preserve">[name="Executor"]  'Do you want to live?'
 </t>
   </si>
   <si>
@@ -1984,7 +1984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Executor"]  You need only answer: "Yes," or "no."
+    <t xml:space="preserve">[name="Executor"]  You need only answer: 'Yes,' or 'no.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act4d0 Operational Intelligence 战地秘闻 戦地の逸話/level_act4d0_st04.xlsx
@@ -1484,7 +1484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:37 A.M. - Cloudy Skies
+    <t xml:space="preserve">10:37 A.M. \ Overcast
 </t>
   </si>
   <si>
